--- a/cold_genes_combined_with_gene_interval_update_01052017.xlsx
+++ b/cold_genes_combined_with_gene_interval_update_01052017.xlsx
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$157</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="439">
   <si>
     <t>Gene_Chr</t>
   </si>
@@ -1287,55 +1288,67 @@
     <t>reference</t>
   </si>
   <si>
-    <t>PMC146917</t>
-  </si>
-  <si>
-    <t>Gapped BLAST and PSI-BLAST: a new generation of protein database search programs.</t>
-  </si>
-  <si>
-    <t>Subdivision and haplotype structure in natural populations of Arabidopsis lyrata.</t>
-  </si>
-  <si>
-    <t>Wiley</t>
-  </si>
-  <si>
-    <t>PMC2528102</t>
-  </si>
-  <si>
-    <t>Global analysis of Arabidopsis gene expression uncovers a complex array of changes impacting pathogen response and cell cycle during geminivirus infection.</t>
-  </si>
-  <si>
-    <t>PMC1276035</t>
-  </si>
-  <si>
-    <t>The Arabidopsis cold-responsive transcriptome and its regulation by ICE1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMC166537 </t>
-  </si>
-  <si>
     <t>Inositol phospholipid metabolism in Arabidopsis. Characterized and putative isoforms of inositol phospholipid kinase and phosphoinositide-specific phospholipase C.</t>
   </si>
   <si>
-    <t>Characterization of the Sucrose Phosphate Phosphatase (SPP) Isoforms from Arabidopsis thaliana and Role of the S6PPc Domain in Dimerization</t>
-  </si>
-  <si>
-    <t>Characterization of two distinct subfamilies of SUN-domain proteins in Arabidopsis and their interactions with the novel KASH-domain protein AtTIK</t>
-  </si>
-  <si>
-    <t>Biochemical and structural study of Arabidopsis hexokinase 1</t>
-  </si>
-  <si>
-    <t>Transgenic expression of MYB15 confers enhanced sensitivity to abscisic acid and improved drought tolerance in Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>Cross genome comparisons of serine proteases in Arabidopsis and rice.</t>
+    <t>12-oxophytodienoate reductase 3 (OPR3) is the isoenzyme involved in jasmonate biosynthesis.</t>
+  </si>
+  <si>
+    <t>12-Oxo-Phytodienoic Acid Triggers Expression of a Distinct Set of Genes and Plays a Role in Wound-Induced Gene Expression in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>Arabidopsis AtDGK7, the smallest member of plant diacylglycerol kinases, displays unique biochemical features and saturates at low substrate concentration-the DGK inhibitor R59022 differentially affects AtDGK2 and AtDGK7 activity in vitro, and alters plant growth and development.</t>
+  </si>
+  <si>
+    <t>Molecular cloning of a cDNA encoding diacylglycerol kinase (DGK) in Arabidopsis thaliana.</t>
+  </si>
+  <si>
+    <t>Sucrose-phosphatase gene families in plants.</t>
+  </si>
+  <si>
+    <t>Expression of Arabidopsis Hexokinase in Citrus Guard Cells Controls Stomatal Aperture and Reduces Transpiration</t>
+  </si>
+  <si>
+    <t>A R2R3-type myb transcription factor is involved in the cold-regulation of CBF genes and in acquired freezing tolerance.</t>
   </si>
   <si>
     <t>Phospholipid-derived signaling mediated by phospholipase A in plants.</t>
   </si>
   <si>
+    <t>Transgressive segregation reveals two Arabidopsis TIR-NB-LRR resistance genes effective against Leptosphaeria maculans, causal agent of blackleg disease.</t>
+  </si>
+  <si>
     <t>Identification of phosphomethylethanolamine N-methyltransferase from Arabidopsis and its role in choline and phospholipid metabolism</t>
+  </si>
+  <si>
+    <t>PHOSPHATIDIC ACID PHOSPHOHYDROLASE1 and 2 Regulate Phospholipid Synthesis at the Endoplasmic Reticulum in Arabidopsis</t>
+  </si>
+  <si>
+    <t>PMC152217</t>
+  </si>
+  <si>
+    <t>The Arabidopsis phospholipase D family. Characterization of a calcium-independent and phosphatidylcholine-selective PLD zeta 1 with distinct regulatory domains.</t>
+  </si>
+  <si>
+    <t>The Choline/Ethanolamine Kinase Family in Arabidopsis: Essential Role of CEK4 in Phospholipid Biosynthesis and Embryo Development</t>
+  </si>
+  <si>
+    <t>Handling calcium signaling: Arabidopsis CaMs and CMLs.</t>
+  </si>
+  <si>
+    <t>Calmodulin isoforms in Arabidopsis encoded by multiple divergent mRNAs.</t>
+  </si>
+  <si>
+    <t>Functional genomic analysis of Arabidopsis thaliana glycoside hydrolase family 1.</t>
+  </si>
+  <si>
+    <t>A bifunctional TPS-TPP enzyme from yeast confers tolerance to multiple and extreme abiotic-stress conditions in transgenic Arabidopsis.</t>
+  </si>
+  <si>
+    <t>Overexpression of the trehalose-6-phosphate phosphatase gene OsTPP1 confers stress tolerance in rice and results in the activation of stress responsive genes.</t>
+  </si>
+  <si>
+    <t>OST1 Kinase Modulates Freezing Tolerance by Enhancing ICE1 Stability in Arabidopsis</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1602,12 +1615,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1770,28 +1809,53 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2100,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.4" x14ac:dyDescent="0.5"/>
@@ -2170,7 +2234,7 @@
       <c r="O1" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="62" t="s">
         <v>416</v>
       </c>
       <c r="Q1" s="11" t="s">
@@ -2236,13 +2300,13 @@
       <c r="N2" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q2" s="56" t="s">
+      <c r="O2" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="55">
+        <v>10872231</v>
+      </c>
+      <c r="Q2" s="70" t="s">
         <v>419</v>
       </c>
     </row>
@@ -2289,14 +2353,14 @@
       <c r="N3" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>419</v>
+      <c r="O3" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="55">
+        <v>16258017</v>
+      </c>
+      <c r="Q3" s="70" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
@@ -2340,15 +2404,11 @@
       <c r="N4" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>420</v>
-      </c>
+      <c r="O4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
@@ -2391,12 +2451,8 @@
       <c r="O5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>420</v>
-      </c>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="61"/>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="17" t="s">
@@ -2442,12 +2498,8 @@
       <c r="O6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>423</v>
-      </c>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="56"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
@@ -2507,11 +2559,11 @@
       <c r="M7" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="P7" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q7" s="60" t="s">
-        <v>425</v>
+      <c r="P7" s="55">
+        <v>16081412</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
@@ -2558,11 +2610,11 @@
       <c r="O8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>425</v>
+      <c r="P8" s="58">
+        <v>8605313</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>422</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
@@ -2624,11 +2676,11 @@
       <c r="O9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q9" s="58" t="s">
-        <v>427</v>
+      <c r="P9" s="57">
+        <v>12226484</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
@@ -2675,11 +2727,11 @@
       <c r="O10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="61">
-        <v>27855180</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>428</v>
+      <c r="P10" s="55">
+        <v>12559580</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>423</v>
       </c>
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
@@ -2743,12 +2795,8 @@
       <c r="O11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="55">
-        <v>25217773</v>
-      </c>
-      <c r="Q11" s="58" t="s">
-        <v>429</v>
-      </c>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="56"/>
     </row>
     <row r="12" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="17" t="s">
@@ -2791,11 +2839,11 @@
       <c r="O12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="55">
-        <v>25664748</v>
-      </c>
-      <c r="Q12" s="58" t="s">
-        <v>430</v>
+      <c r="P12" s="57">
+        <v>26734024</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
@@ -2845,10 +2893,10 @@
         <v>22</v>
       </c>
       <c r="P13" s="55">
-        <v>19161942</v>
-      </c>
-      <c r="Q13" s="58" t="s">
-        <v>431</v>
+        <v>17015446</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
@@ -2895,12 +2943,8 @@
       <c r="O14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="55">
-        <v>16895613</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>432</v>
-      </c>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="56"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -2966,8 +3010,8 @@
       <c r="P15" s="55">
         <v>15130548</v>
       </c>
-      <c r="Q15" s="60" t="s">
-        <v>433</v>
+      <c r="Q15" s="21" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
@@ -3013,6 +3057,7 @@
       <c r="O16" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P16" s="64"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="19" t="s">
@@ -3057,6 +3102,7 @@
       <c r="O17" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P17" s="64"/>
     </row>
     <row r="18" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18" s="17" t="s">
@@ -3102,8 +3148,12 @@
       <c r="O18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="55">
+        <v>16623885</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
@@ -3169,11 +3219,11 @@
       <c r="O19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="63">
+      <c r="P19" s="55">
         <v>20650897</v>
       </c>
-      <c r="Q19" s="60" t="s">
-        <v>434</v>
+      <c r="Q19" s="21" t="s">
+        <v>428</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -3240,11 +3290,11 @@
       <c r="O20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P20" s="63">
-        <v>20650897</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>434</v>
+      <c r="P20" s="55">
+        <v>20699392</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>429</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -3308,6 +3358,12 @@
       <c r="O21" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P21" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="22" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A22" s="29" t="s">
@@ -3353,8 +3409,12 @@
       <c r="O22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="55">
+        <v>25966764</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>432</v>
+      </c>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
@@ -3417,6 +3477,7 @@
       <c r="O23" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P23" s="64"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="23" t="s">
@@ -3464,8 +3525,12 @@
       <c r="O24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="P24" s="71">
+        <v>16023399</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -3529,8 +3594,12 @@
       <c r="O25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="55">
+        <v>8507825</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -3596,6 +3665,12 @@
       <c r="O26" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P26" s="72">
+        <v>15604686</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="27" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
@@ -3640,6 +3715,12 @@
       <c r="O27" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P27" s="55">
+        <v>17628825</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
@@ -3685,8 +3766,12 @@
       <c r="O28" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="P28" s="57">
+        <v>18365248</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>437</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -3706,7 +3791,7 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A29" s="19" t="s">
         <v>306</v>
       </c>
@@ -3748,6 +3833,12 @@
       </c>
       <c r="O29" s="21" t="s">
         <v>22</v>
+      </c>
+      <c r="P29" s="55">
+        <v>25669882</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.5">
@@ -3796,7 +3887,7 @@
       <c r="O30" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="4"/>
+      <c r="P30" s="66"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -3861,7 +3952,7 @@
       <c r="O31" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="19"/>
+      <c r="P31" s="64"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
@@ -3926,7 +4017,7 @@
       <c r="O32" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P32" s="19"/>
+      <c r="P32" s="64"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -3991,7 +4082,7 @@
       <c r="O33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P33" s="19"/>
+      <c r="P33" s="64"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -4056,7 +4147,7 @@
       <c r="O34" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="4"/>
+      <c r="P34" s="66"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
@@ -4123,6 +4214,7 @@
       <c r="O35" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P35" s="65"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A36" s="21" t="s">
@@ -4167,6 +4259,7 @@
       <c r="O36" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A37" s="28" t="s">
@@ -4214,7 +4307,7 @@
       <c r="O37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P37" s="21"/>
+      <c r="P37" s="53"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
@@ -4278,6 +4371,7 @@
       <c r="O38" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P38" s="64"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A39" s="19" t="s">
@@ -4323,7 +4417,7 @@
       <c r="O39" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P39" s="19"/>
+      <c r="P39" s="64"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
@@ -4388,7 +4482,7 @@
       <c r="O40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P40" s="19"/>
+      <c r="P40" s="64"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
@@ -4453,7 +4547,7 @@
       <c r="O41" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P41" s="19"/>
+      <c r="P41" s="64"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
@@ -4520,7 +4614,7 @@
       <c r="O42" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P42" s="4"/>
+      <c r="P42" s="66"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
@@ -4581,7 +4675,7 @@
       <c r="O43" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P43" s="19"/>
+      <c r="P43" s="64"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
@@ -4642,7 +4736,7 @@
       <c r="O44" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P44" s="21"/>
+      <c r="P44" s="53"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
@@ -4706,6 +4800,7 @@
       <c r="O45" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P45" s="64"/>
     </row>
     <row r="46" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A46" s="19" t="s">
@@ -4750,6 +4845,7 @@
       <c r="O46" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P46" s="64"/>
     </row>
     <row r="47" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A47" s="19" t="s">
@@ -4794,6 +4890,7 @@
       <c r="O47" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P47" s="64"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A48" s="19" t="s">
@@ -4839,7 +4936,7 @@
       <c r="O48" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P48" s="19"/>
+      <c r="P48" s="64"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -4904,7 +5001,7 @@
       <c r="O49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P49" s="19"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
@@ -4969,7 +5066,7 @@
       <c r="O50" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P50" s="19"/>
+      <c r="P50" s="64"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
@@ -5030,7 +5127,7 @@
       <c r="O51" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P51" s="19"/>
+      <c r="P51" s="64"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
@@ -5095,7 +5192,7 @@
       <c r="O52" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P52" s="19"/>
+      <c r="P52" s="64"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
@@ -5162,7 +5259,7 @@
       <c r="O53" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="4"/>
+      <c r="P53" s="66"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
@@ -5229,7 +5326,7 @@
       <c r="O54" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P54" s="36"/>
+      <c r="P54" s="67"/>
       <c r="Q54" s="36"/>
       <c r="R54" s="36"/>
       <c r="S54" s="36"/>
@@ -5294,7 +5391,7 @@
       <c r="O55" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P55" s="21"/>
+      <c r="P55" s="53"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
@@ -5361,7 +5458,7 @@
       <c r="O56" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P56" s="4"/>
+      <c r="P56" s="66"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
@@ -5428,7 +5525,7 @@
       <c r="O57" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P57" s="3"/>
+      <c r="P57" s="65"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -5489,7 +5586,7 @@
       <c r="O58" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P58" s="19"/>
+      <c r="P58" s="64"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
       <c r="S58" s="19"/>
@@ -5551,6 +5648,7 @@
       <c r="O59" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P59" s="53"/>
     </row>
     <row r="60" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A60" s="19" t="s">
@@ -5595,6 +5693,7 @@
       <c r="O60" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P60" s="64"/>
     </row>
     <row r="61" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A61" s="19" t="s">
@@ -5639,6 +5738,7 @@
       <c r="O61" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P61" s="64"/>
     </row>
     <row r="62" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
@@ -5686,7 +5786,7 @@
       <c r="O62" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P62" s="4"/>
+      <c r="P62" s="66"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
@@ -5753,7 +5853,7 @@
       <c r="O63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P63" s="4"/>
+      <c r="P63" s="66"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
@@ -5817,6 +5917,7 @@
       <c r="O64" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P64" s="64"/>
     </row>
     <row r="65" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A65" s="19" t="s">
@@ -5861,6 +5962,7 @@
       <c r="O65" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P65" s="64"/>
     </row>
     <row r="66" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
@@ -5908,6 +6010,7 @@
       <c r="O66" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P66" s="66"/>
     </row>
     <row r="67" spans="1:35" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
@@ -5953,7 +6056,7 @@
       <c r="O67" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P67" s="3"/>
+      <c r="P67" s="65"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
@@ -6018,7 +6121,7 @@
       <c r="O68" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P68" s="3"/>
+      <c r="P68" s="65"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
@@ -6083,7 +6186,7 @@
       <c r="O69" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P69" s="4"/>
+      <c r="P69" s="66"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -6148,7 +6251,7 @@
       <c r="O70" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P70" s="19"/>
+      <c r="P70" s="64"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -6212,6 +6315,7 @@
       <c r="O71" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P71" s="64"/>
     </row>
     <row r="72" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A72" s="19" t="s">
@@ -6256,6 +6360,7 @@
       <c r="O72" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P72" s="64"/>
     </row>
     <row r="73" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A73" s="19" t="s">
@@ -6300,6 +6405,7 @@
       <c r="O73" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P73" s="64"/>
     </row>
     <row r="74" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A74" s="19" t="s">
@@ -6344,6 +6450,7 @@
       <c r="O74" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P74" s="64"/>
     </row>
     <row r="75" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
@@ -6391,7 +6498,7 @@
       <c r="O75" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P75" s="3"/>
+      <c r="P75" s="65"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
@@ -6458,7 +6565,7 @@
       <c r="O76" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P76" s="3"/>
+      <c r="P76" s="65"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
@@ -6523,7 +6630,7 @@
       <c r="O77" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P77" s="19"/>
+      <c r="P77" s="64"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -6588,7 +6695,7 @@
       <c r="O78" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P78" s="19"/>
+      <c r="P78" s="64"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
@@ -6652,6 +6759,7 @@
       <c r="O79" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P79" s="64"/>
     </row>
     <row r="80" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A80" s="19" t="s">
@@ -6696,6 +6804,7 @@
       <c r="O80" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P80" s="64"/>
     </row>
     <row r="81" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
@@ -6743,7 +6852,7 @@
       <c r="O81" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P81" s="21"/>
+      <c r="P81" s="53"/>
       <c r="Q81" s="21"/>
       <c r="R81" s="21"/>
       <c r="S81" s="21"/>
@@ -6810,7 +6919,7 @@
       <c r="O82" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P82" s="3"/>
+      <c r="P82" s="65"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
@@ -6877,6 +6986,7 @@
       <c r="O83" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P83" s="66"/>
     </row>
     <row r="84" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
@@ -6924,7 +7034,7 @@
       <c r="O84" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P84" s="3"/>
+      <c r="P84" s="65"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
@@ -6989,7 +7099,7 @@
       <c r="O85" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P85" s="21"/>
+      <c r="P85" s="53"/>
       <c r="Q85" s="21"/>
       <c r="R85" s="21"/>
       <c r="S85" s="21"/>
@@ -7053,6 +7163,7 @@
       <c r="O86" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P86" s="53"/>
     </row>
     <row r="87" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="23" t="s">
@@ -7100,7 +7211,7 @@
       <c r="O87" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P87" s="3"/>
+      <c r="P87" s="65"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
@@ -7165,7 +7276,7 @@
       <c r="O88" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P88" s="21"/>
+      <c r="P88" s="53"/>
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
@@ -7230,7 +7341,7 @@
       <c r="O89" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P89" s="4"/>
+      <c r="P89" s="66"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
@@ -7295,7 +7406,7 @@
       <c r="O90" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P90" s="19"/>
+      <c r="P90" s="64"/>
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
       <c r="S90" s="19"/>
@@ -7359,6 +7470,7 @@
       <c r="O91" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P91" s="64"/>
     </row>
     <row r="92" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A92" s="19" t="s">
@@ -7404,7 +7516,7 @@
       <c r="O92" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P92" s="19"/>
+      <c r="P92" s="64"/>
       <c r="Q92" s="19"/>
       <c r="R92" s="19"/>
       <c r="S92" s="19"/>
@@ -7471,7 +7583,7 @@
       <c r="O93" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P93" s="4"/>
+      <c r="P93" s="66"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
@@ -7535,6 +7647,7 @@
       <c r="O94" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P94" s="64"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A95" s="19" t="s">
@@ -7580,7 +7693,7 @@
       <c r="O95" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P95" s="19"/>
+      <c r="P95" s="64"/>
       <c r="Q95" s="19"/>
       <c r="R95" s="19"/>
       <c r="S95" s="19"/>
@@ -7645,7 +7758,7 @@
       <c r="O96" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P96" s="19"/>
+      <c r="P96" s="64"/>
       <c r="Q96" s="19"/>
       <c r="R96" s="19"/>
       <c r="S96" s="19"/>
@@ -7710,7 +7823,7 @@
       <c r="O97" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P97" s="21"/>
+      <c r="P97" s="53"/>
       <c r="Q97" s="21"/>
       <c r="R97" s="21"/>
       <c r="S97" s="21"/>
@@ -7774,6 +7887,7 @@
       <c r="O98" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P98" s="53"/>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A99" s="21" t="s">
@@ -7818,6 +7932,7 @@
       <c r="O99" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P99" s="53"/>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A100" s="21" t="s">
@@ -7862,6 +7977,7 @@
       <c r="O100" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P100" s="53"/>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A101" s="21" t="s">
@@ -7906,6 +8022,7 @@
       <c r="O101" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P101" s="53"/>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A102" s="21" t="s">
@@ -7950,6 +8067,7 @@
       <c r="O102" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P102" s="53"/>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A103" s="19" t="s">
@@ -7995,7 +8113,7 @@
       <c r="O103" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P103" s="19"/>
+      <c r="P103" s="64"/>
       <c r="Q103" s="19"/>
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
@@ -8060,7 +8178,7 @@
       <c r="O104" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P104" s="21"/>
+      <c r="P104" s="53"/>
       <c r="Q104" s="21"/>
       <c r="R104" s="21"/>
       <c r="S104" s="21"/>
@@ -8125,7 +8243,7 @@
       <c r="O105" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P105" s="21"/>
+      <c r="P105" s="53"/>
       <c r="Q105" s="21"/>
       <c r="R105" s="21"/>
       <c r="S105" s="21"/>
@@ -8190,7 +8308,7 @@
       <c r="O106" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P106" s="21"/>
+      <c r="P106" s="53"/>
       <c r="Q106" s="21"/>
       <c r="R106" s="21"/>
       <c r="S106" s="21"/>
@@ -8255,7 +8373,7 @@
       <c r="O107" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P107" s="21"/>
+      <c r="P107" s="53"/>
       <c r="Q107" s="21"/>
       <c r="R107" s="21"/>
       <c r="S107" s="21"/>
@@ -8320,7 +8438,7 @@
       <c r="O108" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P108" s="21"/>
+      <c r="P108" s="53"/>
       <c r="Q108" s="21"/>
       <c r="R108" s="21"/>
       <c r="S108" s="21"/>
@@ -8385,7 +8503,7 @@
       <c r="O109" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P109" s="21"/>
+      <c r="P109" s="53"/>
       <c r="Q109" s="21"/>
       <c r="R109" s="21"/>
       <c r="S109" s="21"/>
@@ -8450,7 +8568,7 @@
       <c r="O110" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P110" s="21"/>
+      <c r="P110" s="53"/>
       <c r="Q110" s="21"/>
       <c r="R110" s="21"/>
       <c r="S110" s="21"/>
@@ -8515,7 +8633,7 @@
       <c r="O111" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P111" s="21"/>
+      <c r="P111" s="53"/>
       <c r="Q111" s="21"/>
       <c r="R111" s="21"/>
       <c r="S111" s="21"/>
@@ -8582,6 +8700,7 @@
       <c r="O112" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P112" s="64"/>
     </row>
     <row r="113" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A113" s="19" t="s">
@@ -8627,7 +8746,7 @@
       <c r="O113" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P113" s="19"/>
+      <c r="P113" s="64"/>
       <c r="Q113" s="19"/>
       <c r="R113" s="19"/>
       <c r="S113" s="19"/>
@@ -8694,7 +8813,7 @@
       <c r="O114" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P114" s="4"/>
+      <c r="P114" s="66"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
@@ -8758,6 +8877,7 @@
       <c r="O115" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P115" s="64"/>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A116" s="19" t="s">
@@ -8803,7 +8923,7 @@
       <c r="O116" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P116" s="19"/>
+      <c r="P116" s="64"/>
       <c r="Q116" s="19"/>
       <c r="R116" s="19"/>
       <c r="S116" s="19"/>
@@ -8868,7 +8988,7 @@
       <c r="O117" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P117" s="19"/>
+      <c r="P117" s="64"/>
       <c r="Q117" s="19"/>
       <c r="R117" s="19"/>
       <c r="S117" s="19"/>
@@ -8933,7 +9053,7 @@
       <c r="O118" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P118" s="19"/>
+      <c r="P118" s="64"/>
       <c r="Q118" s="19"/>
       <c r="R118" s="19"/>
       <c r="S118" s="19"/>
@@ -9000,7 +9120,7 @@
       <c r="O119" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P119" s="3"/>
+      <c r="P119" s="65"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
@@ -9064,6 +9184,7 @@
       <c r="O120" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P120" s="64"/>
     </row>
     <row r="121" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A121" s="19" t="s">
@@ -9108,6 +9229,7 @@
       <c r="O121" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P121" s="64"/>
     </row>
     <row r="122" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="17" t="s">
@@ -9155,6 +9277,7 @@
       <c r="O122" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P122" s="64"/>
     </row>
     <row r="123" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A123" s="19" t="s">
@@ -9199,6 +9322,7 @@
       <c r="O123" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P123" s="64"/>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A124" s="19" t="s">
@@ -9244,7 +9368,7 @@
       <c r="O124" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P124" s="19"/>
+      <c r="P124" s="64"/>
       <c r="Q124" s="19"/>
       <c r="R124" s="19"/>
       <c r="S124" s="19"/>
@@ -9309,7 +9433,7 @@
       <c r="O125" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P125" s="19"/>
+      <c r="P125" s="64"/>
       <c r="Q125" s="19"/>
       <c r="R125" s="19"/>
       <c r="S125" s="19"/>
@@ -9374,7 +9498,7 @@
       <c r="O126" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P126" s="19"/>
+      <c r="P126" s="64"/>
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
       <c r="S126" s="19"/>
@@ -9438,6 +9562,7 @@
       <c r="O127" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P127" s="64"/>
     </row>
     <row r="128" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="17" t="s">
@@ -9483,7 +9608,7 @@
       <c r="O128" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P128" s="21"/>
+      <c r="P128" s="53"/>
       <c r="Q128" s="21"/>
       <c r="R128" s="21"/>
       <c r="S128" s="21"/>
@@ -9550,7 +9675,7 @@
       <c r="O129" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P129" s="6"/>
+      <c r="P129" s="68"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
@@ -9615,7 +9740,7 @@
       <c r="O130" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P130" s="36"/>
+      <c r="P130" s="67"/>
       <c r="Q130" s="36"/>
       <c r="R130" s="36"/>
       <c r="S130" s="36"/>
@@ -9680,7 +9805,7 @@
       <c r="O131" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="P131" s="44"/>
+      <c r="P131" s="69"/>
       <c r="Q131" s="44"/>
       <c r="R131" s="44"/>
       <c r="S131" s="44"/>
@@ -9744,6 +9869,7 @@
       <c r="O132" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P132" s="64"/>
     </row>
     <row r="133" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A133" s="3" t="s">
@@ -9791,7 +9917,7 @@
       <c r="O133" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P133" s="3"/>
+      <c r="P133" s="65"/>
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
@@ -9858,6 +9984,7 @@
       <c r="O134" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P134" s="65"/>
     </row>
     <row r="135" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A135" s="21" t="s">
@@ -9903,7 +10030,7 @@
       <c r="O135" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P135" s="21"/>
+      <c r="P135" s="53"/>
       <c r="Q135" s="21"/>
       <c r="R135" s="21"/>
       <c r="S135" s="21"/>
@@ -9966,7 +10093,7 @@
       <c r="O136" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P136" s="21"/>
+      <c r="P136" s="53"/>
       <c r="Q136" s="21"/>
       <c r="R136" s="21"/>
       <c r="S136" s="21"/>
@@ -10024,6 +10151,7 @@
       <c r="O137" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P137" s="64"/>
     </row>
     <row r="138" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A138" s="19" t="s">
@@ -10068,6 +10196,7 @@
       <c r="O138" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P138" s="64"/>
     </row>
     <row r="139" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="s">
@@ -10115,7 +10244,7 @@
       <c r="O139" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P139" s="3"/>
+      <c r="P139" s="65"/>
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
@@ -10179,6 +10308,7 @@
       <c r="O140" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P140" s="64"/>
     </row>
     <row r="141" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A141" s="19" t="s">
@@ -10223,6 +10353,7 @@
       <c r="O141" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P141" s="64"/>
     </row>
     <row r="142" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A142" s="21"/>
@@ -10264,7 +10395,7 @@
       <c r="O142" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P142" s="21"/>
+      <c r="P142" s="53"/>
       <c r="Q142" s="21"/>
       <c r="R142" s="21"/>
       <c r="S142" s="21"/>
@@ -10322,6 +10453,7 @@
       <c r="O143" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P143" s="64"/>
     </row>
     <row r="144" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C144" s="19" t="s">
@@ -10360,6 +10492,7 @@
       <c r="O144" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P144" s="64"/>
     </row>
     <row r="145" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A145" s="17" t="s">
@@ -10407,6 +10540,7 @@
       <c r="O145" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P145" s="64"/>
     </row>
     <row r="146" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A146" s="17" t="s">
@@ -10451,6 +10585,7 @@
       <c r="O146" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P146" s="64"/>
     </row>
     <row r="147" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A147" s="19" t="s">
@@ -10495,6 +10630,7 @@
       <c r="O147" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P147" s="64"/>
     </row>
     <row r="148" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A148" s="17" t="s">
@@ -10538,7 +10674,7 @@
       <c r="O148" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P148" s="21"/>
+      <c r="P148" s="53"/>
       <c r="Q148" s="21"/>
       <c r="R148" s="21"/>
       <c r="S148" s="21"/>
@@ -10605,7 +10741,7 @@
       <c r="O149" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P149" s="3"/>
+      <c r="P149" s="65"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
@@ -10672,7 +10808,7 @@
       <c r="O150" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P150" s="3"/>
+      <c r="P150" s="65"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
@@ -10736,6 +10872,7 @@
       <c r="O151" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P151" s="64"/>
     </row>
     <row r="152" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A152" s="4" t="s">
@@ -10783,7 +10920,7 @@
       <c r="O152" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P152" s="4"/>
+      <c r="P152" s="66"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
@@ -10847,6 +10984,7 @@
       <c r="O153" s="21" t="s">
         <v>22</v>
       </c>
+      <c r="P153" s="64"/>
     </row>
     <row r="154" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A154" s="19" t="s">
@@ -10892,7 +11030,7 @@
       <c r="O154" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P154" s="19"/>
+      <c r="P154" s="64"/>
       <c r="Q154" s="19"/>
       <c r="R154" s="19"/>
       <c r="S154" s="19"/>
@@ -10913,6 +11051,9 @@
       <c r="AH154" s="19"/>
       <c r="AI154" s="19"/>
     </row>
+    <row r="155" spans="1:35" x14ac:dyDescent="0.5">
+      <c r="P155" s="53"/>
+    </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A156" s="19" t="s">
         <v>320</v>
@@ -10930,25 +11071,29 @@
     <sortCondition ref="F2:F156"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC146917/"/>
-    <hyperlink ref="P3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC146917/"/>
-    <hyperlink ref="P4" r:id="rId3" tooltip="Full text at publisher's site" display="http://onlinelibrary.wiley.com/resolve/openurl?genre=article&amp;sid=nlm:pubmed&amp;issn=0962-1083&amp;date=2003&amp;volume=12&amp;issue=5&amp;spage=1247"/>
-    <hyperlink ref="P5" r:id="rId4" tooltip="Full text at publisher's site" display="http://onlinelibrary.wiley.com/resolve/openurl?genre=article&amp;sid=nlm:pubmed&amp;issn=0962-1083&amp;date=2003&amp;volume=12&amp;issue=5&amp;spage=1247"/>
-    <hyperlink ref="P7" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1276035/"/>
-    <hyperlink ref="P8" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1276035/"/>
-    <hyperlink ref="P11" r:id="rId7" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25217773&amp;dopt=Abstract"/>
-    <hyperlink ref="P12" r:id="rId8" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25664748&amp;dopt=Abstract"/>
-    <hyperlink ref="P13" r:id="rId9" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19161942&amp;dopt=Abstract"/>
-    <hyperlink ref="P14" r:id="rId10" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16895613&amp;dopt=Abstract"/>
+    <hyperlink ref="P2" r:id="rId1" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=10872231&amp;dopt=Abstract"/>
+    <hyperlink ref="P3" r:id="rId2" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16258017&amp;dopt=Abstract"/>
+    <hyperlink ref="P7" r:id="rId3" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16081412&amp;dopt=Abstract"/>
+    <hyperlink ref="P8" r:id="rId4" display="http://link.springer.com/article/10.1007%2FBF00049339"/>
+    <hyperlink ref="P9" r:id="rId5" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=12226484&amp;dopt=Abstract"/>
+    <hyperlink ref="P10" r:id="rId6" display="http://www.sciencedirect.com/science/article/pii/S0378111902011770"/>
+    <hyperlink ref="P12" r:id="rId7" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=26734024&amp;dopt=Abstract"/>
+    <hyperlink ref="P13" r:id="rId8" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17015446&amp;dopt=Abstract"/>
+    <hyperlink ref="P15" r:id="rId9" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=15130548&amp;dopt=Abstract"/>
+    <hyperlink ref="P18" r:id="rId10" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16623885&amp;dopt=Abstract"/>
     <hyperlink ref="P19" r:id="rId11" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=20650897&amp;dopt=Abstract"/>
-    <hyperlink ref="P20" r:id="rId12" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=20650897&amp;dopt=Abstract"/>
-    <hyperlink ref="P6" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2528102/"/>
-    <hyperlink ref="P9" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1276035/"/>
-    <hyperlink ref="P10" r:id="rId15" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=27855180&amp;dopt=Abstract"/>
-    <hyperlink ref="P15" r:id="rId16" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=15130548&amp;dopt=Abstract"/>
+    <hyperlink ref="P20" r:id="rId12" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=20699392&amp;dopt=Abstract"/>
+    <hyperlink ref="P21" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC152217/"/>
+    <hyperlink ref="P22" r:id="rId14" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25966764&amp;dopt=Abstract"/>
+    <hyperlink ref="P24" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pubmed/16023399?dopt=Abstract"/>
+    <hyperlink ref="P25" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pubmed/8507825?dopt=Abstract"/>
+    <hyperlink ref="P26" r:id="rId17" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=15604686&amp;dopt=Abstract"/>
+    <hyperlink ref="P27" r:id="rId18" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17628825&amp;dopt=Abstract"/>
+    <hyperlink ref="P28" r:id="rId19" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=18365248&amp;dopt=Abstract"/>
+    <hyperlink ref="P29" r:id="rId20" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25669882&amp;dopt=Abstract"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/cold_genes_combined_with_gene_interval_update_01052017.xlsx
+++ b/cold_genes_combined_with_gene_interval_update_01052017.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$157</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="461">
   <si>
     <t>Gene_Chr</t>
   </si>
@@ -1349,6 +1348,72 @@
   </si>
   <si>
     <t>OST1 Kinase Modulates Freezing Tolerance by Enhancing ICE1 Stability in Arabidopsis</t>
+  </si>
+  <si>
+    <t>Transcriptome analyses show changes in gene expression to accompany pollen germination and tube growth in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>Cellulose synthase complexes act in a concerted fashion to synthesize highly aggregated cellulose in secondary cell walls of plants</t>
+  </si>
+  <si>
+    <t>Regulation of plant immunity through ubiquitin-mediated modulation of Ca(2+) -calmodulin-AtSR1/CAMTA3 signaling</t>
+  </si>
+  <si>
+    <t>Expression of E. coli glycogen branching enzyme in an Arabidopsis mutant devoid of endogenous starch branching enzymes induces the synthesis of starch-like polyglucans</t>
+  </si>
+  <si>
+    <t>Starch metabolism in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>Point mutation of a plastidic invertase inhibits development of the photosynthetic apparatus and enhances nitrate assimilation in sugar-treated Arabidopsis seedlings</t>
+  </si>
+  <si>
+    <t>Exploring the neutral invertase-oxidative stress defence connection in Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>Paired Hierarchical Organization of 13-Lipoxygenases in Arabidopsis</t>
+  </si>
+  <si>
+    <t>Arabidopsis lox3 lox4 double mutants are male sterile and defective in global proliferative arrest</t>
+  </si>
+  <si>
+    <t>Glycerol-3-Phosphate Acyltransferase 6 (GPAT6) Is Important for Tapetum Development in Arabidopsis and Plays Multiple Roles in Plant Fertility</t>
+  </si>
+  <si>
+    <t>Molecular Cloning and Expression of cor (Cold-Regulated) Genes in Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>AtDGK2, a novel diacylglycerol kinase from Arabidopsis thaliana, phosphorylates 1-stearoyl-2-arachidonoyl-sn-glycerol and 1,2-dioleoyl-sn-glycerol, and exhibits cold-inducible gene expression.</t>
+  </si>
+  <si>
+    <t>Calcium Sensors and Their Interacting Protein Kinases: Genomics of the Arabidopsis and Rice CBL-CIPK Signaling Networks.</t>
+  </si>
+  <si>
+    <t>Plant protein inhibitors of invertases.</t>
+  </si>
+  <si>
+    <t>Soybean GmbZIP123 gene enhances lipid content in the seeds of transgenic Arabidopsis plants</t>
+  </si>
+  <si>
+    <t>Structural basis of the regulatory mechanism of the plant CIPK family of protein kinases controlling ion homeostasis and abiotic stress</t>
+  </si>
+  <si>
+    <t>Genome-wide and expression analysis of protein phosphatase 2C in rice and Arabidopsis.</t>
+  </si>
+  <si>
+    <t>DWARF TILLER1, a WUSCHEL-Related Homeobox Transcription Factor, Is Required for Tiller Growth in Rice</t>
+  </si>
+  <si>
+    <t>UDP-glucose pyrophosphorylase is rate limiting in vegetative and reproductive phases in Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>Impairment of Cellulose Synthases Required for Arabidopsis Secondary Cell Wall Formation Enhances Disease Resistance.</t>
+  </si>
+  <si>
+    <t>Four Arabidopsis?AREB/ABF transcription factors function predominantly in gene expression downstream of SnRK2 kinases in abscisic acid signalling in response to osmotic stress</t>
+  </si>
+  <si>
+    <t>The Role of Cytosolic alpha-Glucan Phosphorylase in Maltose Metabolism and the Comparison of Amylomaltase in Arabidopsis and E. coli.</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1857,6 +1922,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2164,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="N22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.4" x14ac:dyDescent="0.5"/>
@@ -3841,7 +3909,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>300</v>
       </c>
@@ -3887,8 +3955,12 @@
       <c r="O30" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="4"/>
+      <c r="P30" s="55">
+        <v>18775970</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3908,7 +3980,7 @@
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
     </row>
-    <row r="31" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A31" s="19" t="s">
         <v>255</v>
       </c>
@@ -3952,8 +4024,12 @@
       <c r="O31" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="19"/>
+      <c r="P31" s="57">
+        <v>27647923</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>440</v>
+      </c>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
@@ -3973,7 +4049,7 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
     </row>
-    <row r="32" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A32" s="19" t="s">
         <v>258</v>
       </c>
@@ -4017,8 +4093,12 @@
       <c r="O32" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="19"/>
+      <c r="P32" s="55">
+        <v>24528504</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>441</v>
+      </c>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
@@ -4038,7 +4118,7 @@
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
     </row>
-    <row r="33" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A33" s="19" t="s">
         <v>293</v>
       </c>
@@ -4082,8 +4162,12 @@
       <c r="O33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="19"/>
+      <c r="P33" s="55">
+        <v>26715025</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
@@ -4147,8 +4231,12 @@
       <c r="O34" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="4"/>
+      <c r="P34" s="55">
+        <v>23393426</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -4168,7 +4256,7 @@
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
     </row>
-    <row r="35" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>280</v>
       </c>
@@ -4214,9 +4302,14 @@
       <c r="O35" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P35" s="65"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.5">
+      <c r="P35" s="57">
+        <v>20304912</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A36" s="21" t="s">
         <v>280</v>
       </c>
@@ -4259,7 +4352,12 @@
       <c r="O36" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P36" s="53"/>
+      <c r="P36" s="55">
+        <v>21441406</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="37" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A37" s="28" t="s">
@@ -4307,8 +4405,12 @@
       <c r="O37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="21"/>
+      <c r="P37" s="57">
+        <v>21052784</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>447</v>
+      </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
@@ -4371,7 +4473,12 @@
       <c r="O38" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P38" s="64"/>
+      <c r="P38" s="55">
+        <v>21746699</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A39" s="19" t="s">
@@ -4482,8 +4589,12 @@
       <c r="O40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="19"/>
+      <c r="P40" s="73">
+        <v>1062659</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
@@ -4757,7 +4868,7 @@
       <c r="AH44" s="21"/>
       <c r="AI44" s="21"/>
     </row>
-    <row r="45" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A45" s="19" t="s">
         <v>17</v>
       </c>
@@ -4800,9 +4911,14 @@
       <c r="O45" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="64"/>
-    </row>
-    <row r="46" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P45" s="55">
+        <v>14665624</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A46" s="19" t="s">
         <v>226</v>
       </c>
@@ -4845,9 +4961,14 @@
       <c r="O46" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P46" s="64"/>
-    </row>
-    <row r="47" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P46" s="55">
+        <v>14730064</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A47" s="19" t="s">
         <v>280</v>
       </c>
@@ -4890,9 +5011,14 @@
       <c r="O47" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P47" s="64"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.5">
+      <c r="P47" s="55">
+        <v>14871666</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A48" s="19" t="s">
         <v>280</v>
       </c>
@@ -4936,8 +5062,12 @@
       <c r="O48" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="19"/>
+      <c r="P48" s="55">
+        <v>23963672</v>
+      </c>
+      <c r="Q48" s="19" t="s">
+        <v>453</v>
+      </c>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
@@ -5066,8 +5196,12 @@
       <c r="O50" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="19"/>
+      <c r="P50" s="55">
+        <v>25288725</v>
+      </c>
+      <c r="Q50" s="19" t="s">
+        <v>454</v>
+      </c>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -5259,8 +5393,12 @@
       <c r="O53" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="4"/>
+      <c r="P53" s="55">
+        <v>19021904</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
@@ -5326,8 +5464,12 @@
       <c r="O54" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="36"/>
+      <c r="P54" s="55">
+        <v>24625559</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>456</v>
+      </c>
       <c r="R54" s="36"/>
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
@@ -5391,8 +5533,12 @@
       <c r="O55" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="21"/>
+      <c r="P55" s="55">
+        <v>20435647</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>457</v>
+      </c>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
@@ -5412,7 +5558,7 @@
       <c r="AH55" s="21"/>
       <c r="AI55" s="21"/>
     </row>
-    <row r="56" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>255</v>
       </c>
@@ -5458,8 +5604,12 @@
       <c r="O56" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="4"/>
+      <c r="P56" s="55">
+        <v>17351116</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>458</v>
+      </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
@@ -5525,8 +5675,12 @@
       <c r="O57" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="3"/>
+      <c r="P57" s="57">
+        <v>24738645</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -5648,7 +5802,12 @@
       <c r="O59" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P59" s="53"/>
+      <c r="P59" s="55">
+        <v>16980562</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="60" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A60" s="19" t="s">
@@ -6940,7 +7099,7 @@
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
     </row>
-    <row r="83" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>297</v>
       </c>
@@ -6986,7 +7145,12 @@
       <c r="O83" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P83" s="66"/>
+      <c r="P83" s="57">
+        <v>27135236</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="84" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
@@ -11091,9 +11255,31 @@
     <hyperlink ref="P27" r:id="rId18" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17628825&amp;dopt=Abstract"/>
     <hyperlink ref="P28" r:id="rId19" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=18365248&amp;dopt=Abstract"/>
     <hyperlink ref="P29" r:id="rId20" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25669882&amp;dopt=Abstract"/>
+    <hyperlink ref="P30" r:id="rId21" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=18775970&amp;dopt=Abstract"/>
+    <hyperlink ref="P31" r:id="rId22" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=27647923&amp;dopt=Abstract"/>
+    <hyperlink ref="P32" r:id="rId23" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=24528504&amp;dopt=Abstract"/>
+    <hyperlink ref="P33" r:id="rId24" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=26715025&amp;dopt=Abstract"/>
+    <hyperlink ref="P34" r:id="rId25" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=23393426&amp;dopt=Abstract"/>
+    <hyperlink ref="P35" r:id="rId26" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=20304912&amp;dopt=Abstract"/>
+    <hyperlink ref="P36" r:id="rId27" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=21441406&amp;dopt=Abstract"/>
+    <hyperlink ref="P83" r:id="rId28" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=27135236&amp;dopt=Abstract"/>
+    <hyperlink ref="P37" r:id="rId29" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=21052784&amp;dopt=Abstract"/>
+    <hyperlink ref="P38" r:id="rId30" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=21746699&amp;dopt=Abstract"/>
+    <hyperlink ref="P40" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1062659/"/>
+    <hyperlink ref="P45" r:id="rId32" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=14665624&amp;dopt=Abstract"/>
+    <hyperlink ref="P46" r:id="rId33" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=14730064&amp;dopt=Abstract"/>
+    <hyperlink ref="P47" r:id="rId34" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=14871666&amp;dopt=Abstract"/>
+    <hyperlink ref="P48" r:id="rId35" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=23963672&amp;dopt=Abstract"/>
+    <hyperlink ref="P50" r:id="rId36" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25288725&amp;dopt=Abstract"/>
+    <hyperlink ref="P53" r:id="rId37" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19021904&amp;dopt=Abstract"/>
+    <hyperlink ref="P54" r:id="rId38" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=24625559&amp;dopt=Abstract"/>
+    <hyperlink ref="P55" r:id="rId39" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=20435647&amp;dopt=Abstract"/>
+    <hyperlink ref="P56" r:id="rId40" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17351116&amp;dopt=Abstract"/>
+    <hyperlink ref="P57" r:id="rId41" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=24738645&amp;dopt=Abstract"/>
+    <hyperlink ref="P59" r:id="rId42" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16980562&amp;dopt=Abstract"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId21"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId43"/>
 </worksheet>
 </file>
 

--- a/cold_genes_combined_with_gene_interval_update_01052017.xlsx
+++ b/cold_genes_combined_with_gene_interval_update_01052017.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="471">
   <si>
     <t>Gene_Chr</t>
   </si>
@@ -1414,6 +1414,36 @@
   </si>
   <si>
     <t>The Role of Cytosolic alpha-Glucan Phosphorylase in Maltose Metabolism and the Comparison of Amylomaltase in Arabidopsis and E. coli.</t>
+  </si>
+  <si>
+    <t>The plastid-localized pfkB-type carbohydrate kinases FRUCTOKINASE-LIKE 1 and 2 are essential for growth and development of Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>Unique drought resistance functions of the Highly ABA-Induced Clade A protein phosphatase 2Cs</t>
+  </si>
+  <si>
+    <t>Isolation of a calmodulin binding transcription factor from rice (Oryza sativa L.).</t>
+  </si>
+  <si>
+    <t>?-Glucosidase BGLU42 is a MYB72-dependent key regulator of rhizobacteria-induced systemic resistance and modulates iron deficiency responses in Arabidopsis roots</t>
+  </si>
+  <si>
+    <t>Ethylene and nitric oxide involvement in the up-regulation of key genes related to iron acquisition and homeostasis in Arabidopsis</t>
+  </si>
+  <si>
+    <t>A link between magnesium-chelatase H subunit and sucrose nonfermenting 1 (SNF1)-related protein kinase SnRK2.6/OST1 in Arabidopsis guard cell signalling in response to abscisic acid</t>
+  </si>
+  <si>
+    <t>Three Arabidopsis SnRK2 Protein Kinases, SRK2D/SnRK2.2, SRK2E/SnRK2.6/OST1 and SRK2I/SnRK2.3 Involved in ABA-Signaling are Essential for the Control of Seed Development and Dormancy.</t>
+  </si>
+  <si>
+    <t>Characterization of multiple SPS knockout mutants reveals redundant functions of the four Arabidopsis sucrose phosphate synthase isoforms in plant viability, and strongly indicates that enhanced respiration and accelerated starch turnover can alleviate the blockage of sucrose biosynthesis</t>
+  </si>
+  <si>
+    <t>Phylogenetic and expression analysis of sucrose phosphate synthase isozymes in plants.</t>
+  </si>
+  <si>
+    <t>GhCaM7-like, a calcium sensor gene, influences cotton fiber elongation and biomass production</t>
   </si>
 </sst>
 </file>
@@ -2232,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+    <sheetView tabSelected="1" topLeftCell="N71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q70:Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.4" x14ac:dyDescent="0.5"/>
@@ -5809,7 +5839,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A60" s="19" t="s">
         <v>236</v>
       </c>
@@ -5852,9 +5882,14 @@
       <c r="O60" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P60" s="64"/>
-    </row>
-    <row r="61" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P60" s="72">
+        <v>22770232</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A61" s="19" t="s">
         <v>316</v>
       </c>
@@ -5897,9 +5932,14 @@
       <c r="O61" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P61" s="64"/>
-    </row>
-    <row r="62" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P61" s="57">
+        <v>22829320</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>258</v>
       </c>
@@ -5945,8 +5985,12 @@
       <c r="O62" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="4"/>
+      <c r="P62" s="55">
+        <v>16192280</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
@@ -6033,7 +6077,7 @@
       <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
     </row>
-    <row r="64" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A64" s="19" t="s">
         <v>227</v>
       </c>
@@ -6076,9 +6120,14 @@
       <c r="O64" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P64" s="64"/>
-    </row>
-    <row r="65" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P64" s="55">
+        <v>15604686</v>
+      </c>
+      <c r="Q64" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A65" s="19" t="s">
         <v>227</v>
       </c>
@@ -6121,9 +6170,14 @@
       <c r="O65" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P65" s="64"/>
-    </row>
-    <row r="66" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P65" s="57">
+        <v>25138267</v>
+      </c>
+      <c r="Q65" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>227</v>
       </c>
@@ -6169,7 +6223,12 @@
       <c r="O66" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="66"/>
+      <c r="P66" s="55">
+        <v>20627899</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="67" spans="1:35" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
@@ -6215,8 +6274,12 @@
       <c r="O67" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="3"/>
+      <c r="P67" s="55">
+        <v>26175350</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>466</v>
+      </c>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
@@ -6280,8 +6343,12 @@
       <c r="O68" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="3"/>
+      <c r="P68" s="72">
+        <v>19541597</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
@@ -6301,7 +6368,7 @@
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
     </row>
-    <row r="69" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>294</v>
       </c>
@@ -6345,8 +6412,12 @@
       <c r="O69" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="4"/>
+      <c r="P69" s="55">
+        <v>26259182</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -6366,7 +6437,7 @@
       <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
     </row>
-    <row r="70" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="19" t="s">
         <v>290</v>
       </c>
@@ -6410,8 +6481,12 @@
       <c r="O70" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P70" s="64"/>
-      <c r="Q70" s="19"/>
+      <c r="P70" s="55">
+        <v>25288725</v>
+      </c>
+      <c r="Q70" s="19" t="s">
+        <v>454</v>
+      </c>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
       <c r="T70" s="19"/>
@@ -6431,7 +6506,7 @@
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
     </row>
-    <row r="71" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="19" t="s">
         <v>242</v>
       </c>
@@ -6474,7 +6549,12 @@
       <c r="O71" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P71" s="64"/>
+      <c r="P71" s="57">
+        <v>27669397</v>
+      </c>
+      <c r="Q71" s="19" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="72" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A72" s="19" t="s">
@@ -9441,7 +9521,12 @@
       <c r="O122" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P122" s="64"/>
+      <c r="P122" s="57">
+        <v>16876912</v>
+      </c>
+      <c r="Q122" s="19" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="123" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A123" s="19" t="s">
@@ -11277,9 +11362,21 @@
     <hyperlink ref="P56" r:id="rId40" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17351116&amp;dopt=Abstract"/>
     <hyperlink ref="P57" r:id="rId41" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=24738645&amp;dopt=Abstract"/>
     <hyperlink ref="P59" r:id="rId42" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16980562&amp;dopt=Abstract"/>
+    <hyperlink ref="P60" r:id="rId43" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=22770232&amp;dopt=Abstract"/>
+    <hyperlink ref="P61" r:id="rId44" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=22829320&amp;dopt=Abstract"/>
+    <hyperlink ref="P62" r:id="rId45" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16192280&amp;dopt=Abstract"/>
+    <hyperlink ref="P64" r:id="rId46" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=15604686&amp;dopt=Abstract"/>
+    <hyperlink ref="P65" r:id="rId47" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25138267&amp;dopt=Abstract"/>
+    <hyperlink ref="P66" r:id="rId48" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=20627899&amp;dopt=Abstract"/>
+    <hyperlink ref="P67" r:id="rId49" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=26175350&amp;dopt=Abstract"/>
+    <hyperlink ref="P68" r:id="rId50" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19541597&amp;dopt=Abstract"/>
+    <hyperlink ref="P69" r:id="rId51" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=26259182&amp;dopt=Abstract"/>
+    <hyperlink ref="P122" r:id="rId52" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16876912&amp;dopt=Abstract"/>
+    <hyperlink ref="P70" r:id="rId53" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25288725&amp;dopt=Abstract"/>
+    <hyperlink ref="P71" r:id="rId54" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=27669397&amp;dopt=Abstract"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId43"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId55"/>
 </worksheet>
 </file>
 

--- a/cold_genes_combined_with_gene_interval_update_01052017.xlsx
+++ b/cold_genes_combined_with_gene_interval_update_01052017.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="497">
   <si>
     <t>Gene_Chr</t>
   </si>
@@ -1440,10 +1440,88 @@
     <t>Characterization of multiple SPS knockout mutants reveals redundant functions of the four Arabidopsis sucrose phosphate synthase isoforms in plant viability, and strongly indicates that enhanced respiration and accelerated starch turnover can alleviate the blockage of sucrose biosynthesis</t>
   </si>
   <si>
-    <t>Phylogenetic and expression analysis of sucrose phosphate synthase isozymes in plants.</t>
-  </si>
-  <si>
     <t>GhCaM7-like, a calcium sensor gene, influences cotton fiber elongation and biomass production</t>
+  </si>
+  <si>
+    <t>Modulation of drought resistance by the abscisic acid-receptor PYL5 through inhibition of clade A PP2Cs</t>
+  </si>
+  <si>
+    <t>Arabidopsis AtPLC2 Is a Primary Phosphoinositide-Specific Phospholipase C in Phosphoinositide Metabolism and the Endoplasmic Reticulum Stress Response</t>
+  </si>
+  <si>
+    <t>Expression of a subset of the Arabidopsis Cys(2)/His(2)-type zinc-finger protein gene family under water stress.</t>
+  </si>
+  <si>
+    <t>The Arabidopsis Cold-Responsive Transcriptome and Its Regulation by ICE1.</t>
+  </si>
+  <si>
+    <t>Trehalose-6-phosphate synthase/phosphatase regulates cell shape and plant architecture in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>Extensive expression regulation and lack of heterologous enzymatic activity of the Class II trehalose metabolism proteins from Arabidopsis thaliana.</t>
+  </si>
+  <si>
+    <t>An unexpected plethora of trehalose biosynthesis genes in Arabidopsis thaliana.</t>
+  </si>
+  <si>
+    <t>The homeobox genes ATHB12 and ATHB7 encode potential regulators of growth in response to water deficit in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>The cysteine2/histidine2-type transcription factor ZINC FINGER OF ARABIDOPSIS THALIANA 6-activated C-REPEAT-BINDING FACTOR pathway is essential for melatonin-mediated freezing stress resistance in Arabidopsis</t>
+  </si>
+  <si>
+    <t>Arabidopsis Cys2/His2-Type Zinc-Finger Proteins Function as Transcription Repressors under Drought, Cold, and High-Salinity Stress Conditions.</t>
+  </si>
+  <si>
+    <t>H(2) Enhances Arabidopsis Salt Tolerance by Manipulating ZAT10/12-Mediated Antioxidant Defence and Controlling Sodium Exclusion</t>
+  </si>
+  <si>
+    <t>Gain- and loss-of-function mutations in Zat10 enhance the tolerance of plants to abiotic stress.</t>
+  </si>
+  <si>
+    <t>Zinc-finger proteins: the classical zinc finger emerges in contemporary plant science.</t>
+  </si>
+  <si>
+    <t>Nectar secretion requires sucrose phosphate synthases and the sugar transporter SWEET9</t>
+  </si>
+  <si>
+    <t>Isozyme-specific Modes of Activation of CTP:phosphorylcholine Cytidylyltransferase in Arabidopsis thaliana at Low Temperature</t>
+  </si>
+  <si>
+    <t>ICE1 Ser403 is necessary for protein stabilization and regulation of cold signaling and tolerance</t>
+  </si>
+  <si>
+    <t>Arabidopsis CBF1 and CBF3 have a different function than CBF2 in cold acclimation and define different gene classes in the CBF regulon.</t>
+  </si>
+  <si>
+    <t>A mitochondrial complex I defect impairs cold-regulated nuclear gene expression.</t>
+  </si>
+  <si>
+    <t>Plastidic phosphatidic acid phosphatases identified in a distinct subfamily of lipid phosphate phosphatases with prokaryotic origin.</t>
+  </si>
+  <si>
+    <t>Acyl-CoA oxidase 1 from Arabidopsis thaliana. Structure of a key enzyme in plant lipid metabolism.</t>
+  </si>
+  <si>
+    <t>Long-chain acyl-CoA oxidases of Arabidopsis.</t>
+  </si>
+  <si>
+    <t>The Calmodulin Binding Protein 60 Family Includes Both Negative and Positive Regulators of Plant Immunity.</t>
+  </si>
+  <si>
+    <t>Arabidopsis basic leucine zipper proteins that mediate stress-responsive abscisic Acid signaling.</t>
+  </si>
+  <si>
+    <t>SDIR1 Is a RING Finger E3 Ligase That Positively Regulates Stress-Responsive Abscisic Acid Signaling in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>A new cellulose synthase gene (PtrCesA2) from aspen xylem is orthologous to Arabidopsis AtCesA7 (irx3) gene associated with secondary cell wall synthesis.</t>
+  </si>
+  <si>
+    <t>Constitutive expression of CIR1 (RVE2) affects several circadian-regulated processes and seed germination in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>REVEILLE1, a Myb-like transcription factor, integrates the circadian clock and auxin pathways</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1933,12 +2011,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2262,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q70:Q71"/>
+    <sheetView tabSelected="1" topLeftCell="K154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.4" x14ac:dyDescent="0.5"/>
@@ -2404,7 +2476,7 @@
       <c r="P2" s="55">
         <v>10872231</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="68" t="s">
         <v>419</v>
       </c>
     </row>
@@ -2457,7 +2529,7 @@
       <c r="P3" s="55">
         <v>16258017</v>
       </c>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="68" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3623,7 +3695,7 @@
       <c r="O24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="71">
+      <c r="P24" s="69">
         <v>16023399</v>
       </c>
       <c r="Q24" s="3" t="s">
@@ -3763,7 +3835,7 @@
       <c r="O26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="72">
+      <c r="P26" s="70">
         <v>15604686</v>
       </c>
       <c r="Q26" s="3" t="s">
@@ -4619,7 +4691,7 @@
       <c r="O40" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P40" s="73">
+      <c r="P40" s="71">
         <v>1062659</v>
       </c>
       <c r="Q40" s="19" t="s">
@@ -5882,7 +5954,7 @@
       <c r="O60" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P60" s="72">
+      <c r="P60" s="70">
         <v>22770232</v>
       </c>
       <c r="Q60" s="19" t="s">
@@ -6343,7 +6415,7 @@
       <c r="O68" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P68" s="72">
+      <c r="P68" s="70">
         <v>19541597</v>
       </c>
       <c r="Q68" s="3" t="s">
@@ -6553,7 +6625,7 @@
         <v>27669397</v>
       </c>
       <c r="Q71" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
@@ -6601,7 +6673,7 @@
       </c>
       <c r="P72" s="64"/>
     </row>
-    <row r="73" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="19" t="s">
         <v>309</v>
       </c>
@@ -6644,9 +6716,14 @@
       <c r="O73" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P73" s="64"/>
-    </row>
-    <row r="74" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P73" s="55">
+        <v>19624469</v>
+      </c>
+      <c r="Q73" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="19" t="s">
         <v>68</v>
       </c>
@@ -6689,7 +6766,12 @@
       <c r="O74" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P74" s="64"/>
+      <c r="P74" s="55">
+        <v>26401841</v>
+      </c>
+      <c r="Q74" s="19" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="75" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
@@ -7045,7 +7127,7 @@
       </c>
       <c r="P80" s="64"/>
     </row>
-    <row r="81" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
         <v>198</v>
       </c>
@@ -7091,8 +7173,12 @@
       <c r="O81" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P81" s="53"/>
-      <c r="Q81" s="21"/>
+      <c r="P81" s="70">
+        <v>12559580</v>
+      </c>
+      <c r="Q81" s="21" t="s">
+        <v>423</v>
+      </c>
       <c r="R81" s="21"/>
       <c r="S81" s="21"/>
       <c r="T81" s="21"/>
@@ -7364,7 +7450,7 @@
       <c r="AH85" s="21"/>
       <c r="AI85" s="21"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="21" t="s">
         <v>272</v>
       </c>
@@ -7407,7 +7493,12 @@
       <c r="O86" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P86" s="53"/>
+      <c r="P86" s="55">
+        <v>10806347</v>
+      </c>
+      <c r="Q86" s="21" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="87" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="23" t="s">
@@ -7455,8 +7546,12 @@
       <c r="O87" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="3"/>
+      <c r="P87" s="55">
+        <v>16214899</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
@@ -7520,8 +7615,12 @@
       <c r="O88" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="21"/>
+      <c r="P88" s="55">
+        <v>14665624</v>
+      </c>
+      <c r="Q88" s="21" t="s">
+        <v>450</v>
+      </c>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
       <c r="T88" s="21"/>
@@ -7585,8 +7684,12 @@
       <c r="O89" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P89" s="66"/>
-      <c r="Q89" s="4"/>
+      <c r="P89" s="55">
+        <v>17981987</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
@@ -7606,7 +7709,7 @@
       <c r="AH89" s="4"/>
       <c r="AI89" s="4"/>
     </row>
-    <row r="90" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="19" t="s">
         <v>217</v>
       </c>
@@ -7650,8 +7753,12 @@
       <c r="O90" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P90" s="64"/>
-      <c r="Q90" s="19"/>
+      <c r="P90" s="55">
+        <v>19344332</v>
+      </c>
+      <c r="Q90" s="19" t="s">
+        <v>475</v>
+      </c>
       <c r="R90" s="19"/>
       <c r="S90" s="19"/>
       <c r="T90" s="19"/>
@@ -7671,7 +7778,7 @@
       <c r="AH90" s="19"/>
       <c r="AI90" s="19"/>
     </row>
-    <row r="91" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="19" t="s">
         <v>217</v>
       </c>
@@ -7714,7 +7821,12 @@
       <c r="O91" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P91" s="64"/>
+      <c r="P91" s="55">
+        <v>11701378</v>
+      </c>
+      <c r="Q91" s="19" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="92" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A92" s="19" t="s">
@@ -7848,7 +7960,7 @@
       <c r="AH93" s="4"/>
       <c r="AI93" s="4"/>
     </row>
-    <row r="94" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="19" t="s">
         <v>243</v>
       </c>
@@ -7891,7 +8003,12 @@
       <c r="O94" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P94" s="64"/>
+      <c r="P94" s="55">
+        <v>11884679</v>
+      </c>
+      <c r="Q94" s="19" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A95" s="19" t="s">
@@ -8946,7 +9063,7 @@
       </c>
       <c r="P112" s="64"/>
     </row>
-    <row r="113" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="19" t="s">
         <v>308</v>
       </c>
@@ -8990,8 +9107,12 @@
       <c r="O113" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P113" s="64"/>
-      <c r="Q113" s="19"/>
+      <c r="P113" s="55">
+        <v>15604708</v>
+      </c>
+      <c r="Q113" s="19" t="s">
+        <v>477</v>
+      </c>
       <c r="R113" s="19"/>
       <c r="S113" s="19"/>
       <c r="T113" s="19"/>
@@ -9078,7 +9199,7 @@
       <c r="AH114" s="4"/>
       <c r="AI114" s="4"/>
     </row>
-    <row r="115" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="19" t="s">
         <v>272</v>
       </c>
@@ -9121,9 +9242,14 @@
       <c r="O115" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P115" s="64"/>
-    </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.5">
+      <c r="P115" s="55">
+        <v>24962049</v>
+      </c>
+      <c r="Q115" s="19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="19" t="s">
         <v>241</v>
       </c>
@@ -9167,8 +9293,12 @@
       <c r="O116" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P116" s="64"/>
-      <c r="Q116" s="19"/>
+      <c r="P116" s="70">
+        <v>15333755</v>
+      </c>
+      <c r="Q116" s="19" t="s">
+        <v>479</v>
+      </c>
       <c r="R116" s="19"/>
       <c r="S116" s="19"/>
       <c r="T116" s="19"/>
@@ -9188,7 +9318,7 @@
       <c r="AH116" s="19"/>
       <c r="AI116" s="19"/>
     </row>
-    <row r="117" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="19" t="s">
         <v>241</v>
       </c>
@@ -9232,8 +9362,12 @@
       <c r="O117" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P117" s="64"/>
-      <c r="Q117" s="19"/>
+      <c r="P117" s="55">
+        <v>23185443</v>
+      </c>
+      <c r="Q117" s="19" t="s">
+        <v>480</v>
+      </c>
       <c r="R117" s="19"/>
       <c r="S117" s="19"/>
       <c r="T117" s="19"/>
@@ -9253,7 +9387,7 @@
       <c r="AH117" s="19"/>
       <c r="AI117" s="19"/>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="19" t="s">
         <v>241</v>
       </c>
@@ -9297,8 +9431,12 @@
       <c r="O118" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P118" s="64"/>
-      <c r="Q118" s="19"/>
+      <c r="P118" s="55">
+        <v>17112521</v>
+      </c>
+      <c r="Q118" s="19" t="s">
+        <v>481</v>
+      </c>
       <c r="R118" s="19"/>
       <c r="S118" s="19"/>
       <c r="T118" s="19"/>
@@ -9428,7 +9566,12 @@
       <c r="O120" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P120" s="64"/>
+      <c r="P120" s="57">
+        <v>21447070</v>
+      </c>
+      <c r="Q120" s="19" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="121" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A121" s="19" t="s">
@@ -9521,14 +9664,14 @@
       <c r="O122" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P122" s="57">
-        <v>16876912</v>
+      <c r="P122" s="55">
+        <v>24670640</v>
       </c>
       <c r="Q122" s="19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="123" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="19" t="s">
         <v>239</v>
       </c>
@@ -9571,7 +9714,12 @@
       <c r="O123" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P123" s="64"/>
+      <c r="P123" s="55">
+        <v>19667100</v>
+      </c>
+      <c r="Q123" s="19" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A124" s="19" t="s">
@@ -9703,7 +9851,7 @@
       <c r="AH125" s="19"/>
       <c r="AI125" s="19"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="19" t="s">
         <v>80</v>
       </c>
@@ -9747,8 +9895,12 @@
       <c r="O126" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P126" s="64"/>
-      <c r="Q126" s="19"/>
+      <c r="P126" s="55">
+        <v>12084824</v>
+      </c>
+      <c r="Q126" s="19" t="s">
+        <v>487</v>
+      </c>
       <c r="R126" s="19"/>
       <c r="S126" s="19"/>
       <c r="T126" s="19"/>
@@ -9924,8 +10076,12 @@
       <c r="O129" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P129" s="68"/>
-      <c r="Q129" s="6"/>
+      <c r="P129" s="70">
+        <v>17652095</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>488</v>
+      </c>
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
@@ -9945,7 +10101,7 @@
       <c r="AH129" s="6"/>
       <c r="AI129" s="6"/>
     </row>
-    <row r="130" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:35" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A130" s="17" t="s">
         <v>64</v>
       </c>
@@ -9989,8 +10145,12 @@
       <c r="O130" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="P130" s="67"/>
-      <c r="Q130" s="36"/>
+      <c r="P130" s="57">
+        <v>20650897</v>
+      </c>
+      <c r="Q130" s="36" t="s">
+        <v>428</v>
+      </c>
       <c r="R130" s="36"/>
       <c r="S130" s="36"/>
       <c r="T130" s="36"/>
@@ -10054,7 +10214,7 @@
       <c r="O131" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="P131" s="69"/>
+      <c r="P131" s="67"/>
       <c r="Q131" s="44"/>
       <c r="R131" s="44"/>
       <c r="S131" s="44"/>
@@ -10166,8 +10326,12 @@
       <c r="O133" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P133" s="65"/>
-      <c r="Q133" s="3"/>
+      <c r="P133" s="55">
+        <v>15581893</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
@@ -10233,7 +10397,12 @@
       <c r="O134" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P134" s="65"/>
+      <c r="P134" s="55">
+        <v>10571860</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="135" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A135" s="21" t="s">
@@ -10402,7 +10571,7 @@
       </c>
       <c r="P137" s="64"/>
     </row>
-    <row r="138" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A138" s="19" t="s">
         <v>311</v>
       </c>
@@ -10445,7 +10614,12 @@
       <c r="O138" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P138" s="64"/>
+      <c r="P138" s="55">
+        <v>24134885</v>
+      </c>
+      <c r="Q138" s="19" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="139" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A139" s="3" t="s">
@@ -10514,7 +10688,7 @@
       <c r="AH139" s="3"/>
       <c r="AI139" s="3"/>
     </row>
-    <row r="140" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A140" s="19" t="s">
         <v>272</v>
       </c>
@@ -10557,9 +10731,14 @@
       <c r="O140" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P140" s="64"/>
-    </row>
-    <row r="141" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="P140" s="55">
+        <v>10380795</v>
+      </c>
+      <c r="Q140" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A141" s="19" t="s">
         <v>243</v>
       </c>
@@ -10602,7 +10781,12 @@
       <c r="O141" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P141" s="64"/>
+      <c r="P141" s="55">
+        <v>17573536</v>
+      </c>
+      <c r="Q141" s="19" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="142" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A142" s="21"/>
@@ -10789,7 +10973,12 @@
       <c r="O145" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P145" s="64"/>
+      <c r="P145" s="55">
+        <v>12383501</v>
+      </c>
+      <c r="Q145" s="19" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="146" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A146" s="17" t="s">
@@ -11011,7 +11200,7 @@
       <c r="AH149" s="3"/>
       <c r="AI149" s="3"/>
     </row>
-    <row r="150" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A150" s="3" t="s">
         <v>76</v>
       </c>
@@ -11057,8 +11246,12 @@
       <c r="O150" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P150" s="65"/>
-      <c r="Q150" s="3"/>
+      <c r="P150" s="55">
+        <v>19805390</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
@@ -11121,7 +11314,12 @@
       <c r="O151" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P151" s="64"/>
+      <c r="P151" s="70">
+        <v>17587236</v>
+      </c>
+      <c r="Q151" s="19" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="152" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A152" s="4" t="s">
@@ -11190,7 +11388,7 @@
       <c r="AH152" s="4"/>
       <c r="AI152" s="4"/>
     </row>
-    <row r="153" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A153" s="19" t="s">
         <v>313</v>
       </c>
@@ -11233,7 +11431,12 @@
       <c r="O153" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P153" s="64"/>
+      <c r="P153" s="55">
+        <v>18093929</v>
+      </c>
+      <c r="Q153" s="19" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="154" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A154" s="19" t="s">
@@ -11371,12 +11574,41 @@
     <hyperlink ref="P67" r:id="rId49" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=26175350&amp;dopt=Abstract"/>
     <hyperlink ref="P68" r:id="rId50" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19541597&amp;dopt=Abstract"/>
     <hyperlink ref="P69" r:id="rId51" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=26259182&amp;dopt=Abstract"/>
-    <hyperlink ref="P122" r:id="rId52" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16876912&amp;dopt=Abstract"/>
-    <hyperlink ref="P70" r:id="rId53" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25288725&amp;dopt=Abstract"/>
-    <hyperlink ref="P71" r:id="rId54" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=27669397&amp;dopt=Abstract"/>
+    <hyperlink ref="P70" r:id="rId52" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=25288725&amp;dopt=Abstract"/>
+    <hyperlink ref="P71" r:id="rId53" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=27669397&amp;dopt=Abstract"/>
+    <hyperlink ref="P73" r:id="rId54" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19624469&amp;dopt=Abstract"/>
+    <hyperlink ref="P74" r:id="rId55" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=26401841&amp;dopt=Abstract"/>
+    <hyperlink ref="P81" r:id="rId56" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=12559580&amp;dopt=Abstract"/>
+    <hyperlink ref="P86" r:id="rId57" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=10806347&amp;dopt=Abstract"/>
+    <hyperlink ref="P87" r:id="rId58" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=16214899&amp;dopt=Abstract"/>
+    <hyperlink ref="P88" r:id="rId59" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=14665624&amp;dopt=Abstract"/>
+    <hyperlink ref="P89" r:id="rId60" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17981987&amp;dopt=Abstract"/>
+    <hyperlink ref="P90" r:id="rId61" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19344332&amp;dopt=Abstract"/>
+    <hyperlink ref="P91" r:id="rId62" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=11701378&amp;dopt=Abstract"/>
+    <hyperlink ref="P113" r:id="rId63" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=15604708&amp;dopt=Abstract"/>
+    <hyperlink ref="P115" r:id="rId64" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=24962049&amp;dopt=Abstract"/>
+    <hyperlink ref="P116" r:id="rId65" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=15333755&amp;dopt=Abstract"/>
+    <hyperlink ref="P117" r:id="rId66" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=23185443&amp;dopt=Abstract"/>
+    <hyperlink ref="P118" r:id="rId67" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17112521&amp;dopt=Abstract"/>
+    <hyperlink ref="P140" r:id="rId68" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=10380795&amp;dopt=Abstract"/>
+    <hyperlink ref="P122" r:id="rId69" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=24670640&amp;dopt=Abstract"/>
+    <hyperlink ref="P123" r:id="rId70" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19667100&amp;dopt=Abstract"/>
+    <hyperlink ref="P120" r:id="rId71" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=21447070&amp;dopt=Abstract"/>
+    <hyperlink ref="P153" r:id="rId72" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=18093929&amp;dopt=Abstract"/>
+    <hyperlink ref="P126" r:id="rId73" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=12084824&amp;dopt=Abstract"/>
+    <hyperlink ref="P129" r:id="rId74" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17652095&amp;dopt=Abstract"/>
+    <hyperlink ref="P130" r:id="rId75" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=20650897&amp;dopt=Abstract"/>
+    <hyperlink ref="P133" r:id="rId76" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=15581893&amp;dopt=Abstract"/>
+    <hyperlink ref="P134" r:id="rId77" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=10571860&amp;dopt=Abstract"/>
+    <hyperlink ref="P138" r:id="rId78" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=24134885&amp;dopt=Abstract"/>
+    <hyperlink ref="P94" r:id="rId79" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=11884679&amp;dopt=Abstract"/>
+    <hyperlink ref="P141" r:id="rId80" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17573536&amp;dopt=Abstract"/>
+    <hyperlink ref="P145" r:id="rId81" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=12383501&amp;dopt=Abstract"/>
+    <hyperlink ref="P151" r:id="rId82" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17587236&amp;dopt=Abstract"/>
+    <hyperlink ref="P150" r:id="rId83" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19805390&amp;dopt=Abstract"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId55"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId84"/>
 </worksheet>
 </file>
 

--- a/cold_genes_combined_with_gene_interval_update_01052017.xlsx
+++ b/cold_genes_combined_with_gene_interval_update_01052017.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="502">
   <si>
     <t>Gene_Chr</t>
   </si>
@@ -1522,13 +1522,28 @@
   </si>
   <si>
     <t>REVEILLE1, a Myb-like transcription factor, integrates the circadian clock and auxin pathways</t>
+  </si>
+  <si>
+    <t>Collection, mapping, and annotation of over 28,000 cDNA clones from japonica rice.</t>
+  </si>
+  <si>
+    <t>Inducible overexpression of a rice allene oxide synthase gene increases the endogenous jasmonic acid level, PR gene expression, and host resistance to fungal infection.</t>
+  </si>
+  <si>
+    <t>Sequence and analysis of rice chromosome 4.</t>
+  </si>
+  <si>
+    <t>Functional Analysis of an Arabidopsis Transcription Factor, DREB2A, Involved in Drought-Responsive Gene Expression</t>
+  </si>
+  <si>
+    <t>A network of rice genes associated with stress response and seed development.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1682,6 +1697,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF575757"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1819,7 +1840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2028,6 +2049,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2334,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
@@ -2577,8 +2599,12 @@
       <c r="O4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="61"/>
+      <c r="P4" s="55">
+        <v>12869764</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="5" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
@@ -6951,8 +6977,12 @@
       <c r="O77" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P77" s="64"/>
-      <c r="Q77" s="19"/>
+      <c r="P77" s="69">
+        <v>17022177</v>
+      </c>
+      <c r="Q77" s="19" t="s">
+        <v>498</v>
+      </c>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
       <c r="T77" s="19"/>
@@ -6972,7 +7002,7 @@
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A78" s="19" t="s">
         <v>371</v>
       </c>
@@ -7016,7 +7046,7 @@
       <c r="O78" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P78" s="64"/>
+      <c r="P78" s="72"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
@@ -8250,7 +8280,7 @@
       </c>
       <c r="P98" s="53"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="21" t="s">
         <v>267</v>
       </c>
@@ -8293,9 +8323,14 @@
       <c r="O99" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P99" s="53"/>
-    </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.5">
+      <c r="P99" s="69">
+        <v>12447439</v>
+      </c>
+      <c r="Q99" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A100" s="21" t="s">
         <v>267</v>
       </c>
@@ -8338,7 +8373,7 @@
       <c r="O100" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P100" s="53"/>
+      <c r="P100" s="72"/>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A101" s="21" t="s">
@@ -8495,7 +8530,7 @@
       <c r="AH103" s="19"/>
       <c r="AI103" s="19"/>
     </row>
-    <row r="104" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="21" t="s">
         <v>265</v>
       </c>
@@ -8539,8 +8574,12 @@
       <c r="O104" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P104" s="53"/>
-      <c r="Q104" s="21"/>
+      <c r="P104" s="55">
+        <v>1456870</v>
+      </c>
+      <c r="Q104" s="21" t="s">
+        <v>500</v>
+      </c>
       <c r="R104" s="21"/>
       <c r="S104" s="21"/>
       <c r="T104" s="21"/>
@@ -11321,7 +11360,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="152" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A152" s="4" t="s">
         <v>178</v>
       </c>
@@ -11367,8 +11406,12 @@
       <c r="O152" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P152" s="66"/>
-      <c r="Q152" s="4"/>
+      <c r="P152" s="55">
+        <v>153660</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>501</v>
+      </c>
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
@@ -11606,9 +11649,14 @@
     <hyperlink ref="P145" r:id="rId81" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=12383501&amp;dopt=Abstract"/>
     <hyperlink ref="P151" r:id="rId82" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=17587236&amp;dopt=Abstract"/>
     <hyperlink ref="P150" r:id="rId83" display="http://www.ncbi.nlm.nih.gov/entrez/query.fcgi?cmd=Retrieve&amp;db=PubMed&amp;list_uids=19805390&amp;dopt=Abstract"/>
+    <hyperlink ref="P4" r:id="rId84" display="https://www.ncbi.nlm.nih.gov/pubmed/12869764"/>
+    <hyperlink ref="P77" r:id="rId85" display="https://www.ncbi.nlm.nih.gov/pubmed/17022177"/>
+    <hyperlink ref="P99" r:id="rId86" display="https://www.ncbi.nlm.nih.gov/pubmed/12447439"/>
+    <hyperlink ref="P104" r:id="rId87" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1456870/"/>
+    <hyperlink ref="P152" r:id="rId88" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC153660/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId84"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId89"/>
 </worksheet>
 </file>
 

--- a/cold_genes_combined_with_gene_interval_update_01052017.xlsx
+++ b/cold_genes_combined_with_gene_interval_update_01052017.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="509">
   <si>
     <t>Gene_Chr</t>
   </si>
@@ -1537,13 +1537,34 @@
   </si>
   <si>
     <t>A network of rice genes associated with stress response and seed development.</t>
+  </si>
+  <si>
+    <t>Mapping of barley homologs to genes that regulate low temperature tolerance in Arabidopsis.</t>
+  </si>
+  <si>
+    <t>Structural, functional, and phylogenetic characterization of a large CBF gene family in barley.</t>
+  </si>
+  <si>
+    <t>CBF gene copy number variation at Frost Resistance-2 is associated with levels of freezing tolerance in temperate-climate cereals.</t>
+  </si>
+  <si>
+    <t>Barley Cbf3 gene identification, expression pattern, and map location.</t>
+  </si>
+  <si>
+    <t>Mapping-by-sequencing accelerates forward genetics in barley.</t>
+  </si>
+  <si>
+    <t>Characterization of a calmodulin-binding transporter from the plasma membrane of barley aleurone.</t>
+  </si>
+  <si>
+    <t>Transcriptome analysis of high-temperature stress in developing barley caryopses: early stress responses and effects on storage compound biosynthesis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1703,6 +1724,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF575757"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1840,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2050,6 +2077,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6108,7 +6136,7 @@
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
     </row>
-    <row r="63" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>247</v>
       </c>
@@ -6154,8 +6182,12 @@
       <c r="O63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="4"/>
+      <c r="P63" s="55">
+        <v>16365758</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>502</v>
+      </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
@@ -7228,7 +7260,7 @@
       <c r="AH81" s="21"/>
       <c r="AI81" s="21"/>
     </row>
-    <row r="82" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
         <v>198</v>
       </c>
@@ -7274,8 +7306,12 @@
       <c r="O82" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="3"/>
+      <c r="P82" s="55">
+        <v>12559580</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -8170,7 +8206,7 @@
       <c r="AH96" s="19"/>
       <c r="AI96" s="19"/>
     </row>
-    <row r="97" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:35" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="21" t="s">
         <v>252</v>
       </c>
@@ -8214,8 +8250,12 @@
       <c r="O97" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="21"/>
+      <c r="P97" s="55">
+        <v>16244905</v>
+      </c>
+      <c r="Q97" s="21" t="s">
+        <v>503</v>
+      </c>
       <c r="R97" s="21"/>
       <c r="S97" s="21"/>
       <c r="T97" s="21"/>
@@ -8235,7 +8275,7 @@
       <c r="AH97" s="21"/>
       <c r="AI97" s="21"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="21" t="s">
         <v>252</v>
       </c>
@@ -8278,7 +8318,12 @@
       <c r="O98" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P98" s="53"/>
+      <c r="P98" s="55">
+        <v>16365758</v>
+      </c>
+      <c r="Q98" s="21" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="99" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="21" t="s">
@@ -8330,7 +8375,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:35" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="21" t="s">
         <v>267</v>
       </c>
@@ -8373,7 +8418,12 @@
       <c r="O100" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P100" s="72"/>
+      <c r="P100" s="55">
+        <v>20213518</v>
+      </c>
+      <c r="Q100" s="21" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A101" s="21" t="s">
@@ -8599,7 +8649,7 @@
       <c r="AH104" s="21"/>
       <c r="AI104" s="21"/>
     </row>
-    <row r="105" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:35" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="21" t="s">
         <v>265</v>
       </c>
@@ -8643,8 +8693,12 @@
       <c r="O105" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P105" s="53"/>
-      <c r="Q105" s="21"/>
+      <c r="P105" s="69">
+        <v>12177491</v>
+      </c>
+      <c r="Q105" s="21" t="s">
+        <v>505</v>
+      </c>
       <c r="R105" s="21"/>
       <c r="S105" s="21"/>
       <c r="T105" s="21"/>
@@ -8664,7 +8718,7 @@
       <c r="AH105" s="21"/>
       <c r="AI105" s="21"/>
     </row>
-    <row r="106" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="21" t="s">
         <v>291</v>
       </c>
@@ -8708,7 +8762,7 @@
       <c r="O106" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P106" s="53"/>
+      <c r="P106" s="73"/>
       <c r="Q106" s="21"/>
       <c r="R106" s="21"/>
       <c r="S106" s="21"/>
@@ -9100,7 +9154,12 @@
       <c r="O112" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P112" s="64"/>
+      <c r="P112" s="55">
+        <v>24917130</v>
+      </c>
+      <c r="Q112" s="19" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="113" spans="1:35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="19" t="s">
@@ -11062,7 +11121,12 @@
       <c r="O146" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P146" s="64"/>
+      <c r="P146" s="55">
+        <v>9465122</v>
+      </c>
+      <c r="Q146" s="19" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="147" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A147" s="19" t="s">
@@ -11151,8 +11215,12 @@
       <c r="O148" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P148" s="53"/>
-      <c r="Q148" s="21"/>
+      <c r="P148" s="69">
+        <v>20924027</v>
+      </c>
+      <c r="Q148" s="21" t="s">
+        <v>508</v>
+      </c>
       <c r="R148" s="21"/>
       <c r="S148" s="21"/>
       <c r="T148" s="21"/>
@@ -11172,7 +11240,7 @@
       <c r="AH148" s="21"/>
       <c r="AI148" s="21"/>
     </row>
-    <row r="149" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>76</v>
       </c>
@@ -11218,7 +11286,7 @@
       <c r="O149" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P149" s="65"/>
+      <c r="P149" s="72"/>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
@@ -11654,9 +11722,18 @@
     <hyperlink ref="P99" r:id="rId86" display="https://www.ncbi.nlm.nih.gov/pubmed/12447439"/>
     <hyperlink ref="P104" r:id="rId87" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1456870/"/>
     <hyperlink ref="P152" r:id="rId88" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC153660/"/>
+    <hyperlink ref="P63" r:id="rId89" display="https://www.ncbi.nlm.nih.gov/pubmed/16365758"/>
+    <hyperlink ref="P82" r:id="rId90" display="https://www.ncbi.nlm.nih.gov/pubmed/12559580"/>
+    <hyperlink ref="P97" r:id="rId91" display="https://www.ncbi.nlm.nih.gov/pubmed/16244905"/>
+    <hyperlink ref="P98" r:id="rId92" display="https://www.ncbi.nlm.nih.gov/pubmed/16365758"/>
+    <hyperlink ref="P100" r:id="rId93" display="https://www.ncbi.nlm.nih.gov/pubmed/20213518"/>
+    <hyperlink ref="P105" r:id="rId94" display="https://www.ncbi.nlm.nih.gov/pubmed/12177491"/>
+    <hyperlink ref="P112" r:id="rId95" display="https://www.ncbi.nlm.nih.gov/pubmed/24917130"/>
+    <hyperlink ref="P146" r:id="rId96" display="https://www.ncbi.nlm.nih.gov/pubmed/9465122"/>
+    <hyperlink ref="P148" r:id="rId97" display="https://www.ncbi.nlm.nih.gov/pubmed/20924027"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId89"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId98"/>
 </worksheet>
 </file>
 
